--- a/Data/Excel/Result.xlsx
+++ b/Data/Excel/Result.xlsx
@@ -34,61 +34,79 @@
     <x:t>Due Date</x:t>
   </x:si>
   <x:si>
-    <x:t>Sit Amet Corp.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jun 1, 2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$21,442.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ahrz8ez6mhtetog7hr4jbm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-09-2024</x:t>
-  </x:si>
-  <x:si>
     <x:t>Aenean LLC</x:t>
   </x:si>
   <x:si>
+    <x:t>2019-06-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4139.60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ck1aw76jnso27jlt4m6jvv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31-08-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6300.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fp25mc1gqwclit4x4s8xz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07-07-2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9778.40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ozesr187z35e7fyor9hyv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-07-2024</x:t>
+  </x:si>
+  <x:si>
     <x:t>2019-06-15</x:t>
   </x:si>
   <x:si>
     <x:t>1009.80</x:t>
   </x:si>
   <x:si>
-    <x:t>1b6gqnwx5um2xfdxw2wcdu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21-07-2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jul 1, 2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,004.00 $200.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ifce8pqi8nj7hl9dk6n9p</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10-09-2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jun 26, 2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$1,214.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61lrs2kdkm41ykmyoeijs6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26-10-2024</x:t>
+    <x:t>284232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9rv1zzx2vcc2m6e0t8u9x</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>t4sjul7iadg43nb6av6gq7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17-07-2024</x:t>
   </x:si>
   <x:si>
     <x:t>2019-06-28</x:t>
@@ -97,94 +115,13 @@
     <x:t>1800.00</x:t>
   </x:si>
   <x:si>
-    <x:t>x62b08ux3a8uw0dmlwn2yl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14-07-2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jun 20, 2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$2,100.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p8gxj0x00plxd87rabzzw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01-10-2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-06-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3000.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cpotki4c4prqapijnwqfq</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07-08-2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-06-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4139.60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pb6a9upt5lfrgtl8iryp4e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12-07-2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-06-20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6300.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fdaf7mw3r9jzfg3p9b24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29-07-2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jun 30, 2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$17,310.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vjwu3g5m31eundce37scod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>04-10-2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jun 19, 2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$146.60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xzpfrfv5zqmunqjhna54x</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13-10-2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-06-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9778.40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2qz8o95oczrwxmbffd4nq</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30-07-2024</x:t>
+    <x:t>284228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45h8yk1r4mviipt8uyij8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09-08-2024</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -535,7 +472,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F13"/>
+  <x:dimension ref="A1:F7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -583,16 +520,16 @@
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>15</x:v>
@@ -612,13 +549,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -626,39 +563,39 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -666,139 +603,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
